--- a/results/mp/tinybert/toy-spam/confidence/168/stop-words-topk-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/168/stop-words-topk-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="106">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,274 +43,289 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>disappointing</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>crap</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
     <t>water</t>
   </si>
   <si>
-    <t>ripped</t>
+    <t>smaller</t>
   </si>
   <si>
     <t>instead</t>
   </si>
   <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>smaller</t>
+    <t>guess</t>
   </si>
   <si>
     <t>broken</t>
   </si>
   <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>thin</t>
+    <t>small</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>tiny</t>
   </si>
   <si>
     <t>probably</t>
   </si>
   <si>
-    <t>tiny</t>
-  </si>
-  <si>
-    <t>small</t>
+    <t>plastic</t>
   </si>
   <si>
     <t>okay</t>
   </si>
   <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
     <t>missing</t>
   </si>
   <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
     <t>ok</t>
   </si>
   <si>
-    <t>fl</t>
+    <t>half</t>
+  </si>
+  <si>
+    <t>tried</t>
+  </si>
+  <si>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>size</t>
   </si>
   <si>
     <t>pay</t>
   </si>
   <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
     <t>though</t>
   </si>
   <si>
-    <t>light</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
     <t>bit</t>
   </si>
   <si>
-    <t>tried</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>seems</t>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>money</t>
   </si>
   <si>
     <t>would</t>
   </si>
   <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>hard</t>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>product</t>
   </si>
   <si>
-    <t>work</t>
-  </si>
-  <si>
     <t>fit</t>
   </si>
   <si>
-    <t>nothing</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>could</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
     <t>used</t>
   </si>
   <si>
-    <t>back</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>much</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>pieces</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>little</t>
+    <t>toy</t>
   </si>
   <si>
     <t>one</t>
   </si>
   <si>
-    <t>toy</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
+    <t>enjoyable</t>
+  </si>
+  <si>
+    <t>classic</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>classic</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>loves</t>
   </si>
   <si>
-    <t>love</t>
+    <t>perfect</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
     <t>loved</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>learn</t>
   </si>
   <si>
-    <t>enjoyed</t>
+    <t>christmas</t>
   </si>
   <si>
     <t>enjoy</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
     <t>fun</t>
   </si>
   <si>
+    <t>cute</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
     <t>game</t>
-  </si>
-  <si>
-    <t>family</t>
   </si>
   <si>
     <t>play</t>
@@ -674,7 +689,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q70"/>
+  <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -682,10 +697,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -764,16 +779,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K3">
-        <v>0.875</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L3">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="M3">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -785,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -793,13 +808,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8421052631578947</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="C4">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D4">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -814,16 +829,16 @@
         <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K4">
-        <v>0.8615384615384616</v>
+        <v>0.8153846153846154</v>
       </c>
       <c r="L4">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M4">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -835,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -843,13 +858,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8181818181818182</v>
+        <v>0.7688172043010753</v>
       </c>
       <c r="C5">
-        <v>36</v>
+        <v>143</v>
       </c>
       <c r="D5">
-        <v>36</v>
+        <v>143</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -861,19 +876,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K5">
-        <v>0.7777777777777778</v>
+        <v>0.8035714285714286</v>
       </c>
       <c r="L5">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="M5">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -885,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -893,13 +908,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.796875</v>
+        <v>0.765625</v>
       </c>
       <c r="C6">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D6">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -911,19 +926,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K6">
-        <v>0.6989247311827957</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="L6">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M6">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -935,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -943,13 +958,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7524271844660194</v>
+        <v>0.7427184466019418</v>
       </c>
       <c r="C7">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D7">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -961,19 +976,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K7">
-        <v>0.59375</v>
+        <v>0.625</v>
       </c>
       <c r="L7">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="M7">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -985,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -993,13 +1008,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7464788732394366</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="C8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1011,19 +1026,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K8">
-        <v>0.5660377358490566</v>
+        <v>0.5849056603773585</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1035,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1043,13 +1058,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7204301075268817</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C9">
-        <v>134</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>134</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1061,19 +1076,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K9">
-        <v>0.4057971014492754</v>
+        <v>0.578125</v>
       </c>
       <c r="L9">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="M9">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1085,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1093,13 +1108,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6666666666666666</v>
+        <v>0.6909090909090909</v>
       </c>
       <c r="C10">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D10">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1111,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="K10">
-        <v>0.3762295081967213</v>
+        <v>0.4202898550724637</v>
       </c>
       <c r="L10">
-        <v>459</v>
+        <v>29</v>
       </c>
       <c r="M10">
-        <v>459</v>
+        <v>29</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1135,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>761</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1143,13 +1158,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6666666666666666</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C11">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D11">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1164,16 +1179,16 @@
         <v>9</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="K11">
-        <v>0.3298755186721992</v>
+        <v>0.3860655737704918</v>
       </c>
       <c r="L11">
-        <v>159</v>
+        <v>471</v>
       </c>
       <c r="M11">
-        <v>159</v>
+        <v>471</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1185,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>323</v>
+        <v>749</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1193,13 +1208,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6666666666666666</v>
+        <v>0.6621621621621622</v>
       </c>
       <c r="C12">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="D12">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1211,19 +1226,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="K12">
-        <v>0.3285509325681492</v>
+        <v>0.3314203730272597</v>
       </c>
       <c r="L12">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M12">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1235,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1243,13 +1258,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6418918918918919</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="C13">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D13">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1261,19 +1276,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K13">
-        <v>0.2583333333333334</v>
+        <v>0.3132780082987552</v>
       </c>
       <c r="L13">
-        <v>31</v>
+        <v>151</v>
       </c>
       <c r="M13">
-        <v>31</v>
+        <v>151</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1285,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>89</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1293,13 +1308,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6363636363636364</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="C14">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D14">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1311,19 +1326,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K14">
-        <v>0.2469879518072289</v>
+        <v>0.2349397590361446</v>
       </c>
       <c r="L14">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M14">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1335,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1343,13 +1358,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6050420168067226</v>
+        <v>0.5630252100840336</v>
       </c>
       <c r="C15">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D15">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1361,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="K15">
-        <v>0.2048929663608563</v>
+        <v>0.2166666666666667</v>
       </c>
       <c r="L15">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="M15">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1385,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>260</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1393,13 +1408,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5301204819277109</v>
+        <v>0.5625</v>
       </c>
       <c r="C16">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D16">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1411,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="K16">
-        <v>0.1851851851851852</v>
+        <v>0.1926605504587156</v>
       </c>
       <c r="L16">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="M16">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1435,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>154</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1464,16 +1479,16 @@
         <v>26</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="K17">
-        <v>0.1640625</v>
+        <v>0.1587301587301587</v>
       </c>
       <c r="L17">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M17">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1485,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>107</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1493,13 +1508,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5172413793103449</v>
+        <v>0.5180722891566265</v>
       </c>
       <c r="C18">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D18">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1511,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K18">
-        <v>0.1349206349206349</v>
+        <v>0.1258741258741259</v>
       </c>
       <c r="L18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1535,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>109</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1543,13 +1558,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5</v>
+        <v>0.5072463768115942</v>
       </c>
       <c r="C19">
-        <v>19</v>
+        <v>175</v>
       </c>
       <c r="D19">
-        <v>19</v>
+        <v>175</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1561,19 +1576,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>19</v>
+        <v>170</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="K19">
-        <v>0.1075268817204301</v>
+        <v>0.125</v>
       </c>
       <c r="L19">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M19">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1585,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>166</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1593,13 +1608,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4857142857142857</v>
+        <v>0.4947368421052631</v>
       </c>
       <c r="C20">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="D20">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1611,19 +1626,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K20">
-        <v>0.1048951048951049</v>
+        <v>0.1124497991967871</v>
       </c>
       <c r="L20">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="M20">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1635,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>128</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1643,13 +1658,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4753623188405797</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="C21">
-        <v>164</v>
+        <v>17</v>
       </c>
       <c r="D21">
-        <v>164</v>
+        <v>17</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1661,19 +1676,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>181</v>
+        <v>18</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K21">
-        <v>0.1044176706827309</v>
+        <v>0.1075268817204301</v>
       </c>
       <c r="L21">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M21">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1685,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>223</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1693,13 +1708,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4444444444444444</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="C22">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D22">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1711,19 +1726,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="K22">
-        <v>0.09553023663453111</v>
+        <v>0.09465381244522349</v>
       </c>
       <c r="L22">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M22">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1735,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1032</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1743,13 +1758,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4409448818897638</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="C23">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="D23">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1761,31 +1776,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K23">
-        <v>0.04935064935064935</v>
+        <v>0.05859375</v>
       </c>
       <c r="L23">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="M23">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="N23">
-        <v>0.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O23">
-        <v>0.01000000000000001</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P23" t="b">
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>1464</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1793,13 +1808,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4105263157894737</v>
+        <v>0.4645669291338583</v>
       </c>
       <c r="C24">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="D24">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1811,19 +1826,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="K24">
-        <v>0.04456824512534819</v>
+        <v>0.05292479108635097</v>
       </c>
       <c r="L24">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M24">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1835,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1843,13 +1858,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4</v>
+        <v>0.4259259259259259</v>
       </c>
       <c r="C25">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D25">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1861,31 +1876,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="K25">
-        <v>0.02136181575433912</v>
+        <v>0.04421326397919376</v>
       </c>
       <c r="L25">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="M25">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="N25">
-        <v>0.84</v>
+        <v>0.96</v>
       </c>
       <c r="O25">
-        <v>0.16</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>733</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1893,13 +1908,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.390625</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="C26">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="D26">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1911,7 +1926,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>78</v>
+        <v>26</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K26">
+        <v>0.02666666666666667</v>
+      </c>
+      <c r="L26">
+        <v>20</v>
+      </c>
+      <c r="M26">
+        <v>22</v>
+      </c>
+      <c r="N26">
+        <v>0.91</v>
+      </c>
+      <c r="O26">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P26" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>730</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1919,13 +1958,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3448275862068966</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="C27">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D27">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1945,13 +1984,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3333333333333333</v>
+        <v>0.390625</v>
       </c>
       <c r="C28">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D28">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1963,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1971,13 +2010,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3316831683168317</v>
+        <v>0.3820224719101123</v>
       </c>
       <c r="C29">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="D29">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1989,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>135</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1997,13 +2036,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.328125</v>
+        <v>0.3415841584158416</v>
       </c>
       <c r="C30">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="D30">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2015,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>43</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2023,13 +2062,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3146067415730337</v>
+        <v>0.3066666666666666</v>
       </c>
       <c r="C31">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D31">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2041,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2049,13 +2088,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3033175355450237</v>
+        <v>0.3061224489795918</v>
       </c>
       <c r="C32">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="D32">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2067,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>147</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2075,13 +2114,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3015873015873016</v>
+        <v>0.296875</v>
       </c>
       <c r="C33">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D33">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2093,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>44</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2101,13 +2140,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2905982905982906</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="C34">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D34">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2119,7 +2158,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>83</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2127,13 +2166,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.2678571428571428</v>
+        <v>0.2950819672131147</v>
       </c>
       <c r="C35">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D35">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2145,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2153,7 +2192,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2666666666666667</v>
+        <v>0.2909090909090909</v>
       </c>
       <c r="C36">
         <v>16</v>
@@ -2171,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2179,13 +2218,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2551020408163265</v>
+        <v>0.2748815165876777</v>
       </c>
       <c r="C37">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="D37">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2197,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>73</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2205,13 +2244,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2459016393442623</v>
+        <v>0.2680412371134021</v>
       </c>
       <c r="C38">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="D38">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2223,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>46</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2231,25 +2270,25 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2422680412371134</v>
+        <v>0.253968253968254</v>
       </c>
       <c r="C39">
+        <v>16</v>
+      </c>
+      <c r="D39">
+        <v>16</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39">
         <v>47</v>
-      </c>
-      <c r="D39">
-        <v>47</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>147</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2257,13 +2296,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.2388059701492537</v>
+        <v>0.2478632478632479</v>
       </c>
       <c r="C40">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D40">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2275,7 +2314,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>51</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2283,13 +2322,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.2297297297297297</v>
+        <v>0.2448979591836735</v>
       </c>
       <c r="C41">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D41">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2301,7 +2340,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2309,13 +2348,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2225519287833828</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="C42">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="D42">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2327,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>524</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2335,13 +2374,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.2215189873417721</v>
+        <v>0.215</v>
       </c>
       <c r="C43">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="D43">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2353,7 +2392,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>246</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2361,13 +2400,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.2101449275362319</v>
+        <v>0.2065217391304348</v>
       </c>
       <c r="C44">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D44">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2379,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2387,13 +2426,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.21</v>
+        <v>0.1930379746835443</v>
       </c>
       <c r="C45">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="D45">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2405,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>158</v>
+        <v>255</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2413,13 +2452,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.1828193832599119</v>
+        <v>0.1928783382789317</v>
       </c>
       <c r="C46">
-        <v>83</v>
+        <v>130</v>
       </c>
       <c r="D46">
-        <v>83</v>
+        <v>130</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2431,7 +2470,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>371</v>
+        <v>544</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2439,13 +2478,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.180379746835443</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="C47">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="D47">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2457,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>259</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2465,7 +2504,7 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.1752577319587629</v>
+        <v>0.1868131868131868</v>
       </c>
       <c r="C48">
         <v>17</v>
@@ -2483,7 +2522,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2491,13 +2530,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1648351648351648</v>
+        <v>0.1708860759493671</v>
       </c>
       <c r="C49">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="D49">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2509,7 +2548,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>76</v>
+        <v>262</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2517,25 +2556,25 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.1588785046728972</v>
+        <v>0.1682242990654206</v>
       </c>
       <c r="C50">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D50">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50">
-        <v>180</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2543,13 +2582,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.1528662420382166</v>
+        <v>0.1588785046728972</v>
       </c>
       <c r="C51">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D51">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2561,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>133</v>
+        <v>180</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2569,13 +2608,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.1485714285714286</v>
+        <v>0.1563876651982379</v>
       </c>
       <c r="C52">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="D52">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2587,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>149</v>
+        <v>383</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2595,13 +2634,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1428571428571428</v>
+        <v>0.154639175257732</v>
       </c>
       <c r="C53">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D53">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2613,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>120</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2621,13 +2660,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.1385767790262172</v>
+        <v>0.1464968152866242</v>
       </c>
       <c r="C54">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D54">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2639,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>230</v>
+        <v>134</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2647,13 +2686,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1379310344827586</v>
+        <v>0.1411290322580645</v>
       </c>
       <c r="C55">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D55">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2665,7 +2704,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>300</v>
+        <v>213</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2673,13 +2712,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1153846153846154</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="C56">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="D56">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2691,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>115</v>
+        <v>300</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2699,13 +2738,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.1145833333333333</v>
+        <v>0.1357142857142857</v>
       </c>
       <c r="C57">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D57">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2717,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>170</v>
+        <v>121</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2725,13 +2764,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1099476439790576</v>
+        <v>0.1314285714285714</v>
       </c>
       <c r="C58">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D58">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2743,7 +2782,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>170</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2751,25 +2790,25 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.101063829787234</v>
+        <v>0.1271186440677966</v>
       </c>
       <c r="C59">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D59">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E59">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>169</v>
+        <v>103</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2777,13 +2816,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.09677419354838709</v>
+        <v>0.1171875</v>
       </c>
       <c r="C60">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D60">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2795,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>224</v>
+        <v>113</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2803,13 +2842,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.09315068493150686</v>
+        <v>0.1068493150684932</v>
       </c>
       <c r="C61">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D61">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2821,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2829,13 +2868,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.09289617486338798</v>
+        <v>0.1047120418848168</v>
       </c>
       <c r="C62">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D62">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2847,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2855,13 +2894,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.07887323943661972</v>
+        <v>0.09836065573770492</v>
       </c>
       <c r="C63">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D63">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2873,7 +2912,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>327</v>
+        <v>165</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2881,25 +2920,25 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.07603305785123966</v>
+        <v>0.09574468085106383</v>
       </c>
       <c r="C64">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="D64">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="E64">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="F64">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="G64" t="b">
         <v>1</v>
       </c>
       <c r="H64">
-        <v>559</v>
+        <v>170</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2907,25 +2946,25 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.06329113924050633</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="C65">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D65">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E65">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="F65">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G65" t="b">
         <v>1</v>
       </c>
       <c r="H65">
-        <v>296</v>
+        <v>155</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2933,25 +2972,25 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.06103286384976526</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C66">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D66">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E66">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>0.76</v>
+        <v>1</v>
       </c>
       <c r="G66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>400</v>
+        <v>176</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2959,25 +2998,25 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.06093189964157706</v>
+        <v>0.07887323943661972</v>
       </c>
       <c r="C67">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D67">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E67">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67">
-        <v>262</v>
+        <v>327</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2985,25 +3024,25 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.06013363028953229</v>
+        <v>0.0738255033557047</v>
       </c>
       <c r="C68">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D68">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68">
-        <v>422</v>
+        <v>414</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3011,25 +3050,25 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.03666245259165613</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C69">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D69">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E69">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="G69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>762</v>
+        <v>260</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3037,25 +3076,129 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.02748091603053435</v>
+        <v>0.06960556844547564</v>
       </c>
       <c r="C70">
+        <v>30</v>
+      </c>
+      <c r="D70">
+        <v>33</v>
+      </c>
+      <c r="E70">
+        <v>0.09</v>
+      </c>
+      <c r="F70">
+        <v>0.91</v>
+      </c>
+      <c r="G70" t="b">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71">
+        <v>0.06741573033707865</v>
+      </c>
+      <c r="C71">
         <v>18</v>
       </c>
-      <c r="D70">
+      <c r="D71">
         <v>18</v>
       </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>1</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70">
-        <v>637</v>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71" t="b">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72">
+        <v>0.05766062602965404</v>
+      </c>
+      <c r="C72">
+        <v>35</v>
+      </c>
+      <c r="D72">
+        <v>36</v>
+      </c>
+      <c r="E72">
+        <v>0.03</v>
+      </c>
+      <c r="F72">
+        <v>0.97</v>
+      </c>
+      <c r="G72" t="b">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73">
+        <v>0.04447852760736196</v>
+      </c>
+      <c r="C73">
+        <v>29</v>
+      </c>
+      <c r="D73">
+        <v>32</v>
+      </c>
+      <c r="E73">
+        <v>0.09</v>
+      </c>
+      <c r="F73">
+        <v>0.91</v>
+      </c>
+      <c r="G73" t="b">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B74">
+        <v>0.03417721518987342</v>
+      </c>
+      <c r="C74">
+        <v>27</v>
+      </c>
+      <c r="D74">
+        <v>31</v>
+      </c>
+      <c r="E74">
+        <v>0.13</v>
+      </c>
+      <c r="F74">
+        <v>0.87</v>
+      </c>
+      <c r="G74" t="b">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>763</v>
       </c>
     </row>
   </sheetData>
